--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>martes, 05/08/2025 - 21:00</t>
+          <t>sábado, 09/08/2025 - 0:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -610,12 +610,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Tigres UANL</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -763,7 +763,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -800,7 +800,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1133,7 +1133,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-08-05 15:16:57</t>
+          <t>2025-08-06 09:45:26</t>
         </is>
       </c>
       <c r="B2" t="n">

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -505,7 +505,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 2:10 p.m.</t>
+          <t>mañana, 2:10 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mañana, 7:00 p.m.</t>
+          <t>hoy, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -688,24 +688,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pasto</t>
+          <t>Deportivo Cali</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hoy, 8:00 p.m.</t>
+          <t>mié, 13/8, 8:30 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>Deportivo Cali</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Unión Magdalena</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pasto</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
           <t>Categoría Primera A</t>
@@ -713,12 +713,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 6 de 19</t>
+          <t>Clausura · Jornada 7 de 19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 12:00 a.m.</t>
+          <t>mañana, 12:00 a.m.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -876,27 +876,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>23/8, Por definirse</t>
+          <t>dom, 10/8, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Panserraikos</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Super Liga de Grecia</t>
+          <t>Amistosos</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mañana, 7:00 p.m.</t>
+          <t>hoy, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 7:00 p.m.</t>
+          <t>mañana, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 3:30 p.m.</t>
+          <t>mañana, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>mañana, 3:30 p.m.</t>
+          <t>hoy, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 3:30 p.m.</t>
+          <t>mañana, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 8:45 p.m.</t>
+          <t>mañana, 8:45 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Durazno</t>
+          <t>Miramar Misiones</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hoy, 3:00 p.m.</t>
+          <t>dom, 10/8, 6:30 p.m.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Durazno</t>
+          <t>Miramar Misiones</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Copa Uruguay</t>
+          <t>Primera División de Uruguay</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Clausura · Jornada 2 de 4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 8:45 p.m.</t>
+          <t>mañana, 8:45 p.m.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sáb, 9/8, 2:30 p.m.</t>
+          <t>mañana, 2:30 p.m.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-07 12:14:31</t>
+          <t>2025-08-08 09:01:50</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -436,7 +436,7 @@
   <cols>
     <col width="34" customWidth="1" min="1" max="1"/>
     <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="27" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>mañana, 2:10 p.m.</t>
+          <t>hoy, 2:10 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -547,24 +547,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Racing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hoy, 7:00 p.m.</t>
+          <t>vie, 15/8, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Racing</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Tigre</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Huracán</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -572,12 +572,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 4 de 16</t>
+          <t>Segunda fase · Jornada 5 de 16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>dom, 10/8, 5:00 p.m.</t>
+          <t>mañana, 5:00 p.m.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dom, 10/8, 8:00 p.m.</t>
+          <t>mañana, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>dom, 10/8, 4:30 p.m.</t>
+          <t>mañana, 4:30 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -782,22 +782,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mañana, 12:00 a.m.</t>
+          <t>vie, 15/8, 10:00 p.m.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Atl. San Luis</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -807,12 +807,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Apertura · Jornada 4 de 17</t>
+          <t>Apertura · Jornada 5 de 17</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dom, 10/8, 5:00 p.m.</t>
+          <t>mañana, 5:00 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>dom, 10/8, 3:00 p.m.</t>
+          <t>mañana, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -923,22 +923,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hoy, 7:00 p.m.</t>
+          <t>vie, 15/8, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Torque</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>Peñarol</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -948,12 +948,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 2 de 4</t>
+          <t>Clausura · Jornada 3 de 4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mañana, 7:00 p.m.</t>
+          <t>hoy, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dom, 10/8, 3:00 p.m.</t>
+          <t>mañana, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>mañana, 3:30 p.m.</t>
+          <t>hoy, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Acassuso</t>
+          <t>Excursionistas</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>hoy, 3:30 p.m.</t>
+          <t>sáb, 23/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acassuso</t>
+          <t>Real Pilar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Pilar</t>
+          <t>Excursionistas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 8 de 21</t>
+          <t>Clausura · Jornada 9 de 21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>mañana, 3:30 p.m.</t>
+          <t>hoy, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>dom, 10/8, 3:00 p.m.</t>
+          <t>mañana, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>dom, 10/8, 8:00 p.m.</t>
+          <t>mañana, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>dom, 10/8, 3:30 p.m.</t>
+          <t>mañana, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>mañana, 8:45 p.m.</t>
+          <t>hoy, 8:45 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>dom, 10/8, 6:30 p.m.</t>
+          <t>mañana, 6:30 p.m.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>mañana, 8:45 p.m.</t>
+          <t>hoy, 8:45 p.m.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>mañana, 2:30 p.m.</t>
+          <t>hoy, 2:30 p.m.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-08 09:01:50</t>
+          <t>2025-08-09 06:02:21</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -435,12 +435,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="27" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="33" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
   </cols>
@@ -500,22 +500,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hoy, 2:10 p.m.</t>
+          <t>sáb, 16/8, 3:10 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Defensores Unidos</t>
+          <t>Chacarita</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chacarita</t>
+          <t>Temperley</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 26 de 34</t>
+          <t>Grupo B · Jornada 27 de 34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -594,22 +594,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>mañana, 5:00 p.m.</t>
+          <t>sáb, 16/8, 2:15 p.m.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Instituto</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 4 de 16</t>
+          <t>Segunda fase · Jornada 5 de 16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -641,24 +641,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ferro</t>
+          <t>Patronato</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mañana, 8:00 p.m.</t>
+          <t>dom, 17/8, 4:00 p.m.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Patronato</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Ferro</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -666,12 +666,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 26 de 34</t>
+          <t>Grupo A · Jornada 27 de 34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mié, 13/8, 8:30 p.m.</t>
+          <t>mié, 13/8, 9:30 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -735,22 +735,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mañana, 4:30 p.m.</t>
+          <t>sáb, 16/8, 5:15 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Gimnasia y Esgrima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gimnasia y Esgrima</t>
+          <t>Almirante Brown</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 26 de 34</t>
+          <t>Grupo B · Jornada 27 de 34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Gimnasia y Tiro de Salta</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>mañana, 5:00 p.m.</t>
+          <t>sáb, 16/8, 7:10 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Gimnasia y Tiro de Salta</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Los Andes</t>
+          <t>Quilmes</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 26 de 34</t>
+          <t>Grupo A · Jornada 27 de 34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -876,27 +876,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Panserraikos</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mañana, 3:00 p.m.</t>
+          <t>sáb, 23/8, Por definirse</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Volos NFC</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Panserraikos</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Amistosos</t>
+          <t>Super Liga de Grecia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -970,17 +970,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Porongos</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>hoy, 7:00 p.m.</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Porongos</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -990,17 +990,17 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Segunda División</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 14 de 14</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1017,24 +1017,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Guillermo Brown</t>
+          <t>Huracán Las Heras</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mañana, 3:00 p.m.</t>
+          <t>dom, 17/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Huracán Las Heras</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Círculo Deportivo</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Guillermo Brown</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Torneo Federal A</t>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 4 de 9</t>
+          <t>Grupo A · Jornada 5 de 9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1064,22 +1064,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Talleres Remedios</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hoy, 3:30 p.m.</t>
+          <t>lun, 18/8, 5:00 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Talleres Remedios</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 26 de 34</t>
+          <t>Grupo B · Jornada 27 de 34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hoy, 3:30 p.m.</t>
+          <t>sáb, 16/8, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 26 de 34</t>
+          <t>Grupo A · Jornada 27 de 34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>27</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1205,24 +1205,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Barracas Central</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>mañana, 3:00 p.m.</t>
+          <t>dom, 17/8, 4:15 p.m.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Central Córdoba</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Barracas Central</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Aldosivi</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 4 de 16</t>
+          <t>Segunda fase · Jornada 5 de 16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Macará</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mañana, 8:00 p.m.</t>
+          <t>dom, 17/8, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>El Nacional</t>
+          <t>Barcelona SC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Barcelona SC</t>
+          <t>Macará</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1299,22 +1299,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Argentino de Merlo</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mañana, 3:30 p.m.</t>
+          <t>sáb, 23/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Argentino de Merlo</t>
+          <t>Dock Sud</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dock Sud</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 8 de 21</t>
+          <t>Clausura · Jornada 9 de 21</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Newell's</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hoy, 8:45 p.m.</t>
+          <t>mié, 13/8, 7:30 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1361,22 +1361,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Newell's</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Primera División</t>
+          <t>Copa Argentina</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 4 de 16</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1393,22 +1393,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>mañana, 6:30 p.m.</t>
+          <t>sáb, 16/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Miramar Misiones</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1418,12 +1418,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 2 de 4</t>
+          <t>Clausura · Jornada 3 de 4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1440,22 +1440,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Atlético Tucumán</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hoy, 8:45 p.m.</t>
+          <t>sáb, 16/8, 6:30 p.m.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Atlético Tucumán</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1465,12 +1465,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 4 de 16</t>
+          <t>Segunda fase · Jornada 5 de 16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1487,24 +1487,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>hoy, 2:30 p.m.</t>
+          <t>lun, 18/8, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>Talleres</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>San Martín</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Sarmiento</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 4 de 16</t>
+          <t>Segunda fase · Jornada 5 de 16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-09 06:02:21</t>
+          <t>2025-08-11 08:04:59</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -436,7 +436,7 @@
   <cols>
     <col width="34" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
@@ -693,7 +693,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mié, 13/8, 9:30 p.m.</t>
+          <t>mañana, 9:30 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -876,27 +876,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sáb, 23/8, Por definirse</t>
+          <t>hoy, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Levadiakos</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Super Liga de Grecia</t>
+          <t>Amistosos</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>mié, 13/8, 7:30 p.m.</t>
+          <t>mañana, 7:30 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-11 08:04:59</t>
+          <t>2025-08-12 08:39:13</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -437,10 +437,10 @@
     <col width="34" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
-    <col width="33" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
     <col width="10" customWidth="1" min="9" max="9"/>
   </cols>
@@ -693,7 +693,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mañana, 9:30 p.m.</t>
+          <t>hoy, 9:30 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -876,32 +876,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Levadiakos</t>
+          <t>Giannina</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>hoy, 3:00 p.m.</t>
+          <t>mar, 19/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>Giannina</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Volos NFC</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Levadiakos</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Amistosos</t>
+          <t>Copa de Grecia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Fase clasificatoria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -970,37 +970,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Porongos</t>
+          <t>Tacuarembó</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>vie, 15/8, 6:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Porongos</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Tacuarembó</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Segunda División</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Segunda fase · Jornada 15 de 15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>mañana, 7:30 p.m.</t>
+          <t>hoy, 7:30 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-12 08:39:13</t>
+          <t>2025-08-13 14:02:03</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -552,7 +552,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vie, 15/8, 9:00 p.m.</t>
+          <t>mañana, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hoy, 9:30 p.m.</t>
+          <t>mié, 20/8, 9:30 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Deportivo Cali</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 7 de 19</t>
+          <t>Clausura · Jornada 1 de 19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>vie, 15/8, 10:00 p.m.</t>
+          <t>mañana, 10:00 p.m.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -876,17 +876,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Giannina</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mar, 19/8, 11:00 a.m.</t>
+          <t>sáb, 23/8, 2:00 p.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Giannina</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Copa de Grecia</t>
+          <t>Super Liga de Grecia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Fase clasificatoria</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>vie, 15/8, 8:00 p.m.</t>
+          <t>mañana, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>vie, 15/8, 6:00 p.m.</t>
+          <t>mañana, 6:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dom, 17/8, 11:00 a.m.</t>
+          <t>dom, 17/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1346,37 +1346,37 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Newell's</t>
+          <t>Sarmiento</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hoy, 7:30 p.m.</t>
+          <t>lun, 18/8, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Atlético Tucumán</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Newell's</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Copa Argentina</t>
+          <t>Primera División</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Segunda fase · Jornada 5 de 16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-13 14:02:03</t>
+          <t>2025-08-14 08:54:25</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -437,8 +437,8 @@
     <col width="34" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="34" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sáb, 16/8, 3:10 p.m.</t>
+          <t>hoy, 2:05 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -547,22 +547,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>mañana, 9:00 p.m.</t>
+          <t>vie, 22/8, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Racing</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 5 de 16</t>
+          <t>Segunda fase · Jornada 6 de 16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sáb, 16/8, 2:15 p.m.</t>
+          <t>hoy, 2:15 p.m.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dom, 17/8, 4:00 p.m.</t>
+          <t>mañana, 4:00 p.m.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sáb, 16/8, 5:15 p.m.</t>
+          <t>hoy, 4:10 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -782,37 +782,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Atl. San Luis</t>
+          <t>Seattle Sounders</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mañana, 10:00 p.m.</t>
+          <t>jue, 21/8, 12:00 a.m.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Puebla</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Atl. San Luis</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Liga MX</t>
+          <t>Leagues Cup</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Apertura · Jornada 5 de 17</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sáb, 16/8, 7:10 p.m.</t>
+          <t>hoy, 6:15 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -876,17 +876,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Giannina</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 2:00 p.m.</t>
+          <t>mar, 19/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Giannina</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -896,12 +896,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Super Liga de Grecia</t>
+          <t>Copa de Grecia</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Fase clasificatoria</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -923,24 +923,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Peñarol</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mañana, 8:00 p.m.</t>
+          <t>sáb, 23/8, 6:00 p.m.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Nacional</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Boston River</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Peñarol</t>
-        </is>
-      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Primera División de Uruguay</t>
@@ -948,12 +948,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 3 de 4</t>
+          <t>Clausura · Jornada 4 de 4</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -970,24 +970,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tacuarembó</t>
+          <t>Central</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mañana, 6:00 p.m.</t>
+          <t>mar, 19/8, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Central</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Deportivo Maldonado</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Tacuarembó</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Segunda División</t>
@@ -995,12 +995,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 15 de 15</t>
+          <t>Segunda fase · Jornada 16 de 16</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dom, 17/8, 3:30 p.m.</t>
+          <t>mañana, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lun, 18/8, 5:00 p.m.</t>
+          <t>lun, 18/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 11:00 a.m.</t>
+          <t>hoy, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1163,7 +1163,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sáb, 16/8, 3:00 p.m.</t>
+          <t>hoy, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>dom, 17/8, 4:15 p.m.</t>
+          <t>mañana, 4:15 p.m.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>dom, 17/8, 8:00 p.m.</t>
+          <t>mañana, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 11:00 a.m.</t>
+          <t>mañana, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sáb, 16/8, 3:30 p.m.</t>
+          <t>hoy, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sáb, 16/8, 6:30 p.m.</t>
+          <t>hoy, 6:30 p.m.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-14 08:54:25</t>
+          <t>2025-08-16 07:31:20</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -435,14 +435,14 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="22" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="34" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,24 +500,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>Colón</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>hoy, 2:05 p.m.</t>
+          <t>sáb, 23/8, 6:00 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Colón</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Chacarita</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Temperley</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -525,12 +525,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 27 de 34</t>
+          <t>Grupo B · Jornada 28 de 34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -594,24 +594,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hoy, 2:15 p.m.</t>
+          <t>dom, 24/8, 8:30 p.m.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Independiente</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Platense</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>San Lorenzo</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -619,12 +619,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 5 de 16</t>
+          <t>Segunda fase · Jornada 6 de 16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Atlético Güemes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>mañana, 4:00 p.m.</t>
+          <t>sáb, 23/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Patronato</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Atlético Güemes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 27 de 34</t>
+          <t>Grupo A · Jornada 28 de 34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -735,24 +735,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Almirante Brown</t>
+          <t>Central Norte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hoy, 4:10 p.m.</t>
+          <t>sáb, 23/8, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Central Norte</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Gimnasia y Esgrima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Almirante Brown</t>
-        </is>
-      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -760,12 +760,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 27 de 34</t>
+          <t>Grupo B · Jornada 28 de 34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>hoy, 6:15 p.m.</t>
+          <t>dom, 24/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Deportivo Maipú</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Los Andes</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Quilmes</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -854,12 +854,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 27 de 34</t>
+          <t>Grupo A · Jornada 28 de 34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -876,27 +876,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Giannina</t>
+          <t>No identificado</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mar, 19/8, 11:00 a.m.</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Giannina</t>
+          <t>No encontrado</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>No encontrado</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Copa de Grecia</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Próximo</t>
+          <t>Sin datos</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mar, 19/8, 3:00 p.m.</t>
+          <t>mañana, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Huracán Las Heras</t>
+          <t>Juventud Unida SL</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>mañana, 3:30 p.m.</t>
+          <t>dom, 24/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Huracán Las Heras</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>Juventud Unida SL</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 5 de 9</t>
+          <t>Grupo A · Jornada 6 de 9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lun, 18/8, 3:30 p.m.</t>
+          <t>hoy, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1111,24 +1111,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Excursionistas</t>
+          <t>Midland</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>hoy, 3:30 p.m.</t>
+          <t>sáb, 30/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>Midland</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Real Pilar</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Excursionistas</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>Primera B</t>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 9 de 21</t>
+          <t>Clausura · Jornada 10 de 21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Alvarado</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>hoy, 3:00 p.m.</t>
+          <t>sáb, 23/8, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Alvarado</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Tristán Suárez</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 27 de 34</t>
+          <t>Grupo A · Jornada 28 de 34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1205,22 +1205,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vie, 22/8, 3:30 p.m.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Barracas Central</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>mañana, 4:15 p.m.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Central Córdoba</t>
-        </is>
-      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Barracas Central</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 5 de 16</t>
+          <t>Segunda fase · Jornada 6 de 16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1252,22 +1252,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Macará</t>
+          <t>Vinotinto</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mañana, 8:00 p.m.</t>
+          <t>sáb, 23/8, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>Vinotinto</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Barcelona SC</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Macará</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1299,24 +1299,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Brown</t>
+          <t>Acassuso</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>mañana, 3:30 p.m.</t>
+          <t>sáb, 30/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Acassuso</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Dock Sud</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Brown</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>Primera B</t>
@@ -1324,12 +1324,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 9 de 21</t>
+          <t>Clausura · Jornada 10 de 21</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lun, 18/8, 7:00 p.m.</t>
+          <t>hoy, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1393,24 +1393,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hoy, 3:30 p.m.</t>
+          <t>dom, 24/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Cerro</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Wanderers</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Primera División de Uruguay</t>
@@ -1418,12 +1418,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 3 de 4</t>
+          <t>Clausura · Jornada 4 de 4</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Newell's</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>hoy, 6:30 p.m.</t>
+          <t>sáb, 23/8, 5:30 p.m.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>Newell's</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1465,12 +1465,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 5 de 16</t>
+          <t>Segunda fase · Jornada 6 de 16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>lun, 18/8, 9:00 p.m.</t>
+          <t>hoy, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>95.5%</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-16 07:31:20</t>
+          <t>2025-08-18 08:48:31</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -437,12 +437,12 @@
     <col width="34" customWidth="1" min="1" max="1"/>
     <col width="21" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="34" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="10" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -693,7 +693,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>mié, 20/8, 9:30 p.m.</t>
+          <t>hoy, 9:30 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jue, 21/8, 12:00 a.m.</t>
+          <t>mañana, 12:00 a.m.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -876,42 +876,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>No identificado</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>sáb, 23/8, 2:00 p.m.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Aris</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Volos NFC</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Super Liga de Grecia</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>No encontrada</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>No encontrado</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>No encontrado</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>No encontrada</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Fase clasificatoria</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>No encontrada</t>
-        </is>
-      </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>Próximo</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 4 de 4</t>
+          <t>Clausura · Jornada 4 de 6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -970,22 +970,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>Atenas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>mañana, 3:00 p.m.</t>
+          <t>sáb, 23/8, 6:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Central</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Atenas</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 16 de 16</t>
+          <t>Segunda fase · Jornada 17 de 17</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hoy, 3:30 p.m.</t>
+          <t>sáb, 23/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Deportivo Morón</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Nueva Chicago</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Central Norte</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 27 de 34</t>
+          <t>Grupo B · Jornada 28 de 34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1346,22 +1346,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hoy, 7:00 p.m.</t>
+          <t>sáb, 23/8, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Atlético Tucumán</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Atlético Tucumán</t>
+          <t>Talleres</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1371,12 +1371,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 5 de 16</t>
+          <t>Segunda fase · Jornada 6 de 16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 4 de 4</t>
+          <t>Clausura · Jornada 4 de 6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1487,22 +1487,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Gimnasia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>hoy, 9:00 p.m.</t>
+          <t>sáb, 23/8, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>San Martín</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>San Martín</t>
+          <t>Gimnasia</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 5 de 16</t>
+          <t>Segunda fase · Jornada 6 de 16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>95.5%</t>
+          <t>100.0%</t>
         </is>
       </c>
     </row>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-18 08:48:31</t>
+          <t>2025-08-20 08:24:00</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -435,9 +435,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
     <col width="21" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="34" customWidth="1" min="7" max="7"/>
@@ -500,22 +500,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colón</t>
+          <t>Club Mitre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 6:00 p.m.</t>
+          <t>sáb, 30/8, 2:00 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Colón</t>
+          <t>Chacarita</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Chacarita</t>
+          <t>Club Mitre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -525,12 +525,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 28 de 34</t>
+          <t>Grupo B · Jornada 29 de 34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -547,24 +547,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vie, 22/8, 8:00 p.m.</t>
+          <t>vie, 29/8, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Banfield</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Tigre</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Independiente</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -572,12 +572,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 6 de 16</t>
+          <t>Segunda fase · Jornada 7 de 16</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -594,22 +594,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>dom, 24/8, 8:30 p.m.</t>
+          <t>lun, 1/9, 7:15 p.m.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Independiente</t>
+          <t>Platense</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Platense</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -619,12 +619,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 6 de 16</t>
+          <t>Segunda fase · Jornada 7 de 16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -641,24 +641,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Atlético Güemes</t>
+          <t>San Martín de Tucumán</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 3:30 p.m.</t>
+          <t>dom, 31/8, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>San Martín de Tucumán</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Atlético Güemes</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -666,12 +666,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 28 de 34</t>
+          <t>Grupo A · Jornada 29 de 34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Boyacá Chicó</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hoy, 9:30 p.m.</t>
+          <t>sáb, 30/8, 4:00 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Boyacá Chicó</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 1 de 19</t>
+          <t>Clausura · Jornada 9 de 19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 8:00 p.m.</t>
+          <t>mié, 27/8, 9:10 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Central Norte</t>
+          <t>Deportivo Morón</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 28 de 34</t>
+          <t>Grupo B · Jornada 20 de 34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -782,37 +782,37 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>mañana, 12:00 a.m.</t>
+          <t>sáb, 30/8, 12:05 a.m.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Seattle Sounders</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Puebla</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Leagues Cup</t>
+          <t>Liga MX</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Apertura · Jornada 7 de 17</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dom, 24/8, 3:30 p.m.</t>
+          <t>dom, 31/8, 4:50 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Los Andes</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Los Andes</t>
+          <t>San Miguel</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -854,12 +854,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 28 de 34</t>
+          <t>Grupo A · Jornada 29 de 34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -876,22 +876,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Olympiacos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 2:00 p.m.</t>
+          <t>sáb, 30/8, 1:00 p.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Volos NFC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Olympiacos</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -923,17 +923,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Paso de la Arena</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 6:00 p.m.</t>
+          <t>mié, 27/8, 8:30 p.m.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Paso de la Arena</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -943,17 +943,17 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Primera División de Uruguay</t>
+          <t>Copa Uruguay</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 4 de 6</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1017,24 +1017,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Juventud Unida SL</t>
+          <t>Gutiérrez</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dom, 24/8, 11:00 a.m.</t>
+          <t>dom, 31/8, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>Gutiérrez</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Círculo Deportivo</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Juventud Unida SL</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>Torneo Federal A</t>
@@ -1042,12 +1042,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 6 de 9</t>
+          <t>Grupo A · Jornada 7 de 9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1064,22 +1064,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Gimnasia y Esgrima</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 3:30 p.m.</t>
+          <t>lun, 1/9, 5:10 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Gimnasia y Esgrima</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1089,12 +1089,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 28 de 34</t>
+          <t>Grupo B · Jornada 29 de 34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1111,22 +1111,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Midland</t>
+          <t>Sportivo Italiano</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 11:00 a.m.</t>
+          <t>sáb, 6/9, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Midland</t>
+          <t>Real Pilar</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Real Pilar</t>
+          <t>Sportivo Italiano</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1136,12 +1136,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 10 de 21</t>
+          <t>Clausura · Jornada 11 de 21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1158,22 +1158,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 3:00 p.m.</t>
+          <t>sáb, 30/8, 1:10 p.m.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Alvarado</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>All Boys</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1183,12 +1183,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 28 de 34</t>
+          <t>Grupo A · Jornada 29 de 34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1205,24 +1205,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Newell's</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>vie, 22/8, 3:30 p.m.</t>
+          <t>vie, 29/8, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>Newell's</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Barracas Central</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -1230,12 +1230,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 6 de 16</t>
+          <t>Segunda fase · Jornada 7 de 16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vinotinto</t>
+          <t>Cuenca Juniors</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 9:00 p.m.</t>
+          <t>jue, 28/8, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Vinotinto</t>
+          <t>Cuenca Juniors</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Serie A de Ecuador</t>
+          <t>Copa Ecuador</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1299,22 +1299,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Acassuso</t>
+          <t>Excursionistas</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 11:00 a.m.</t>
+          <t>sáb, 6/9, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acassuso</t>
+          <t>Dock Sud</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dock Sud</t>
+          <t>Excursionistas</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1324,12 +1324,12 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 10 de 21</t>
+          <t>Clausura · Jornada 11 de 21</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1346,24 +1346,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Talleres</t>
+          <t>Gimnasia</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 8:00 p.m.</t>
+          <t>lun, 1/9, 5:00 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>Gimnasia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>Atlético Tucumán</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Talleres</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -1371,12 +1371,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 6 de 16</t>
+          <t>Segunda fase · Jornada 7 de 16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1393,22 +1393,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>dom, 24/8, 3:30 p.m.</t>
+          <t>sáb, 30/8, 1:30 p.m.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Defensor Sporting</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1418,12 +1418,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 4 de 6</t>
+          <t>Clausura · Jornada 5 de 6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1440,24 +1440,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Newell's</t>
+          <t>Sarmiento</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 5:30 p.m.</t>
+          <t>sáb, 30/8, 7:15 p.m.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>Sarmiento</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
           <t>Rosario Central</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Newell's</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -1465,12 +1465,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 6 de 16</t>
+          <t>Segunda fase · Jornada 7 de 16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1487,24 +1487,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Gimnasia</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 8:00 p.m.</t>
+          <t>dom, 31/8, 7:15 p.m.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>River Plate</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>San Martín</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Gimnasia</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 6 de 16</t>
+          <t>Segunda fase · Jornada 7 de 16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-20 08:24:00</t>
+          <t>2025-08-25 09:04:40</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -438,7 +438,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="24" customWidth="1" min="3" max="3"/>
     <col width="24" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="34" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>mié, 27/8, 9:10 p.m.</t>
+          <t>hoy, 9:10 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dom, 31/8, 4:50 p.m.</t>
+          <t>dom, 31/8, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>mié, 27/8, 8:30 p.m.</t>
+          <t>hoy, 8:30 p.m.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -970,24 +970,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Atenas</t>
+          <t>Rampla</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sáb, 23/8, 6:00 p.m.</t>
+          <t>dom, 31/8, 12:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>Rampla</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Deportivo Maldonado</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Atenas</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>Segunda División</t>
@@ -995,12 +995,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 17 de 17</t>
+          <t>Segunda fase · Jornada 18 de 18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sáb, 6/9, 11:00 a.m.</t>
+          <t>sáb, 30/8, 7:10 p.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Primera B</t>
+          <t>Categoría Primera B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>jue, 28/8, 9:00 p.m.</t>
+          <t>mañana, 9:00 p.m.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sáb, 6/9, 11:00 a.m.</t>
+          <t>vie, 29/8, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Primera B</t>
+          <t>Categoría Primera B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-25 09:04:40</t>
+          <t>2025-08-27 08:23:11</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -435,10 +435,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="24" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
-    <col width="24" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="34" customWidth="1" min="7" max="7"/>
     <col width="17" customWidth="1" min="8" max="8"/>
@@ -500,24 +500,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Club Mitre</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 2:00 p.m.</t>
+          <t>dom, 7/9, 5:00 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Chaco For Ever</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Chacarita</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Club Mitre</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -525,12 +525,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 29 de 34</t>
+          <t>Grupo B · Jornada 30 de 34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -547,37 +547,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vie, 29/8, 7:00 p.m.</t>
+          <t>vie, 5/9, 9:10 p.m.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Banfield</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Independiente</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Primera División</t>
+          <t>Copa Argentina</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 7 de 16</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>No encontrada</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -599,7 +599,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>lun, 1/9, 7:15 p.m.</t>
+          <t>hoy, 7:15 p.m.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -641,22 +641,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>San Martín de Tucumán</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>dom, 31/8, 9:00 p.m.</t>
+          <t>lun, 8/9, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>San Martín de Tucumán</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Tristán Suárez</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -666,12 +666,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 29 de 34</t>
+          <t>Grupo A · Jornada 30 de 34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -688,22 +688,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Boyacá Chicó</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 4:00 p.m.</t>
+          <t>sáb, 6/9, 8:20 p.m.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boyacá Chicó</t>
+          <t>Unión Magdalena</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Unión Magdalena</t>
+          <t>Junior</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -713,12 +713,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 9 de 19</t>
+          <t>Clausura · Jornada 10 de 19</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hoy, 9:10 p.m.</t>
+          <t>hoy, 5:10 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Deportivo Morón</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 20 de 34</t>
+          <t>Grupo B · Jornada 29 de 34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -782,24 +782,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 12:05 a.m.</t>
+          <t>dom, 14/9, 12:00 a.m.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Toluca</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Puebla</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Monterrey</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Liga MX</t>
@@ -807,12 +807,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Apertura · Jornada 7 de 17</t>
+          <t>Apertura · Jornada 8 de 17</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -829,24 +829,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Miguel</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dom, 31/8, 7:00 p.m.</t>
+          <t>dom, 7/9, 4:00 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>Deportivo Madryn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Los Andes</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>San Miguel</t>
-        </is>
-      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -854,12 +854,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 29 de 34</t>
+          <t>Grupo A · Jornada 30 de 34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -876,22 +876,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Olympiacos</t>
+          <t>Panetolikos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 1:00 p.m.</t>
+          <t>sáb, 13/9, Por definirse</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Volos NFC</t>
+          <t>Panetolikos</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Olympiacos</t>
+          <t>Volos New Football Club</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -923,37 +923,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Paso de la Arena</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hoy, 8:30 p.m.</t>
+          <t>sáb, 6/9, 8:30 p.m.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Paso de la Arena</t>
+          <t>Boston River</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Boston River</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Copa Uruguay</t>
+          <t>Primera División de Uruguay</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>Clausura · Jornada 6 de 6</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>No encontrada</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>dom, 31/8, 12:00 p.m.</t>
+          <t>ayer, 12:00 p.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>dom, 31/8, 11:00 a.m.</t>
+          <t>hoy, 4:00 p.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>lun, 1/9, 5:10 p.m.</t>
+          <t>hoy, 5:10 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1111,37 +1111,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sportivo Italiano</t>
+          <t>UAI Urquiza</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 7:10 p.m.</t>
+          <t>sáb, 13/9, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>UAI Urquiza</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Real Pilar</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Sportivo Italiano</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Categoría Primera B</t>
+          <t>Primera B</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 11 de 21</t>
+          <t>Clausura · Jornada 12 de 21</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>All Boys</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 1:10 p.m.</t>
+          <t>lun, 8/9, 3:00 p.m.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Tristán Suárez</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>All Boys</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -1183,12 +1183,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 29 de 34</t>
+          <t>Grupo A · Jornada 30 de 34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1205,17 +1205,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Newell's</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>vie, 29/8, 7:00 p.m.</t>
+          <t>sáb, 13/9, 2:30 p.m.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Newell's</t>
+          <t>Godoy Cruz</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 7 de 16</t>
+          <t>Segunda fase · Jornada 8 de 16</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1252,17 +1252,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cuenca Juniors</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mañana, 9:00 p.m.</t>
+          <t>dom, 14/9, 7:30 p.m.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cuenca Juniors</t>
+          <t>Emelec</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1272,7 +1272,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Copa Ecuador</t>
+          <t>Serie A de Ecuador</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1299,37 +1299,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Excursionistas</t>
+          <t>Midland</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>vie, 29/8, 3:30 p.m.</t>
+          <t>sáb, 13/9, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Midland</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>Dock Sud</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Excursionistas</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Categoría Primera B</t>
+          <t>Primera B</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 11 de 21</t>
+          <t>Clausura · Jornada 12 de 21</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>lun, 1/9, 5:00 p.m.</t>
+          <t>hoy, 5:00 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1393,24 +1393,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Defensor Sporting</t>
+          <t>Torque</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 1:30 p.m.</t>
+          <t>dom, 7/9, 8:30 p.m.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>Torque</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Defensor Sporting</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>Primera División de Uruguay</t>
@@ -1418,12 +1418,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 5 de 6</t>
+          <t>Clausura · Jornada 6 de 6</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1440,22 +1440,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>sáb, 30/8, 7:15 p.m.</t>
+          <t>dom, 14/9, 5:30 p.m.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sarmiento</t>
+          <t>Rosario Central</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Rosario Central</t>
+          <t>Boca Juniors</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1465,12 +1465,12 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 7 de 16</t>
+          <t>Segunda fase · Jornada 8 de 16</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>dom, 31/8, 7:15 p.m.</t>
+          <t>jue, 11/9, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 7 de 16</t>
+          <t>Segunda fase · Jornada 8 de 16</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-08-27 08:23:11</t>
+          <t>2025-09-01 10:52:53</t>
         </is>
       </c>
     </row>

--- a/proximos_partidos.xlsx
+++ b/proximos_partidos.xlsx
@@ -435,9 +435,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="34" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="27" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
     <col width="26" customWidth="1" min="5" max="5"/>
     <col width="30" customWidth="1" min="6" max="6"/>
     <col width="34" customWidth="1" min="7" max="7"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>dom, 7/9, 5:00 p.m.</t>
+          <t>dom, 7/9, 7:00 p.m.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>vie, 5/9, 9:10 p.m.</t>
+          <t>mañana, 9:10 p.m.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -594,24 +594,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Godoy Cruz</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>hoy, 7:15 p.m.</t>
+          <t>dom, 14/9, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Platense</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Godoy Cruz</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>Primera División</t>
@@ -619,12 +619,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 7 de 16</t>
+          <t>Segunda fase · Jornada 8 de 16</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -735,22 +735,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hoy, 5:10 p.m.</t>
+          <t>dom, 7/9, 2:15 p.m.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nueva Chicago</t>
+          <t>Gimnasia y Esgrima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Gimnasia y Esgrima</t>
+          <t>Gimnasia Jujuy</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 29 de 34</t>
+          <t>Grupo B · Jornada 30 de 34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>dom, 7/9, 4:00 p.m.</t>
+          <t>dom, 7/9, 4:15 p.m.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -876,17 +876,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Panetolikos</t>
+          <t>Anagennisi Karditsa</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sáb, 13/9, Por definirse</t>
+          <t>sáb, 6/9, 11:30 a.m.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Panetolikos</t>
+          <t>Anagennisi Karditsa</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Super Liga de Grecia</t>
+          <t>Amistosos</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 6 de 6</t>
+          <t>Clausura · Jornada 6 de 8</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -970,22 +970,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rampla</t>
+          <t>Fénix</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ayer, 12:00 p.m.</t>
+          <t>dom, 7/9, 11:00 a.m.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Rampla</t>
+          <t>Deportivo Maldonado</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Deportivo Maldonado</t>
+          <t>Fénix</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -995,12 +995,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 18 de 18</t>
+          <t>Segunda fase · Jornada 19 de 19</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1017,22 +1017,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Gutiérrez</t>
+          <t>Sol de Mayo</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>hoy, 4:00 p.m.</t>
+          <t>mañana, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Gutiérrez</t>
+          <t>Círculo Deportivo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Círculo Deportivo</t>
+          <t>Sol de Mayo</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Grupo A · Jornada 7 de 9</t>
+          <t>Grupo A · Jornada 8 de 9</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gimnasia y Esgrima</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>hoy, 5:10 p.m.</t>
+          <t>mañana, 8:05 p.m.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>Nueva Chicago</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Gimnasia y Esgrima</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>Primera Nacional</t>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Grupo B · Jornada 29 de 34</t>
+          <t>Grupo B · Jornada 30 de 34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>30</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sáb, 13/9, 11:00 a.m.</t>
+          <t>lun, 8/9, 3:30 p.m.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>sáb, 13/9, 11:00 a.m.</t>
+          <t>lun, 8/9, 8:00 p.m.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1346,17 +1346,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Gimnasia</t>
+          <t>Newell's</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hoy, 5:00 p.m.</t>
+          <t>vie, 12/9, 9:15 p.m.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Gimnasia</t>
+          <t>Newell's</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1371,12 +1371,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Segunda fase · Jornada 7 de 16</t>
+          <t>Segunda fase · Jornada 8 de 16</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clausura · Jornada 6 de 6</t>
+          <t>Clausura · Jornada 6 de 8</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-01 10:52:53</t>
+          <t>2025-09-04 09:08:02</t>
         </is>
       </c>
     </row>
